--- a/suppliers.xlsx
+++ b/suppliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,2455 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TCI AMERICA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>800-4238616</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.tcichemicals.com/eshop/en/us/commodity/M0826/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TCI EUROPE N.V.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.tcichemicals.com/en/eu/
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Toronto Research Chemicals</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>http://www.trc-canada.com/detail.php?CatNum=M218885</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Toronto Research Chemicals Inc.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>http://www.trc-canada.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hebei Mujin Biotechnology Co.,Ltd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>+86 13288715578 +8613288715578</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>http://www.mojinchemical.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Apeloa production Co.,Limited</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+8619933239880</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.apcl.com.cn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Capot Chemical Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>+86-（0）57185586718 +86-13336195806</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>http://www.capot.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Henan Tianfu Chemical Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>+86-0371-55170693 +86-19937530512</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.tianfuchem.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>career henan chemical co</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>+86-0371-86658258 +8613203830695</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.coreychem.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hubei Jusheng Technology Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18871490254</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>http://www.hubeijusheng.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hebei Weibang Biotechnology Co., Ltd</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>+8615531157085</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.weibangbio.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hubei xin bonus chemical co. LTD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>86-13657291602</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList1549548/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chongqing Chemdad Co., Ltd</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>+86-023-6139-8061 +86-86-13650506873</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>http://www.chemdad.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CONIER  CHEM AND PHARMA LIMITED</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>+8618523575427</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>http://www.conier.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hefei TNJ Chemical Industry Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>+86-0551-65418671 +8618949823763</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.tnjchem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Win-Win chemical CO., Limited</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>+86-0086-577-64498589 +86-15355981851</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.win-winchemical.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Finetech Industry Limited</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>+86-27-87465837 +8618971612321</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.finetechnology-ind.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dayang Chem (Hangzhou) Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>571-88938639 +8617705817739</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.dycnchem.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Labnetwork lnc.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>+86-27-50766799 +8618062016861</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>www.labnetwork.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LEAP CHEM CO., LTD.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>+86-852-30606658</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.leapchem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PNP Biotech Co. Ltd</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>+8618516098983</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.pnpbiotech.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ShenZhen Trendseen  Biological Technology  Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13417589054</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList1962465/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GIHI CHEMICALS CO.,LIMITED</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>+8618058761490</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.gihichem.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Shanghai Acmec Biochemical Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+86-18621343501; +undefined18621343501</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>http://www.acmec.com.cn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Suzhou ARTK Medchem Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>+86-512-68323658 +86-18168183658</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Watson Biotechnology Co.,Ltd</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>+86-18186686046 +86-18186686046</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/manufacturer/cnwhwatson/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SHANGHAI KEAN TECHNOLOGY CO., LTD.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>+8613817748580</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>www.kean-chem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>XIAMEN AMITY INDUSTRY AND TRADE CO., LTD.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+8618950047208</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>http://www.amitychem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Amadis Chemical Company Limited</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>571-89925085</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>http://www.amadischem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Mainchem Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>+86-0592-6210733</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.mainchem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Chemwill Asia Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>86-21-51086038</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>http://www.chemwill.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>J &amp; K SCIENTIFIC LTD.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>010-82848833 400-666-7788</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>http://www.jkchemical.com/CH/products/search/cas/15356-60-2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Meryer (Shanghai) Chemical Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>021-61259108 18621169109</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>http://www.meryer.com/cn/products/list.aspx?SearchWord=15356-60-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Alfa Aesar</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>400-6106006</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>http://www.alfachina.cn/AlfaAesarApp/faces/adf.task-flow?adf.tfId=ProductDetailsTF&amp;adf.tfDoc=/WEB-INF/ProductDetailsTF.xml&amp;ProductId=L06102</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TCI (Shanghai) Development Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>021-67121386</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.tcichemicals.com/CN/zh/p/M0826</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Energy Chemical</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>021-021-58432009 400-005-6266</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>http://www.energy-chemical.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Capot Chemical Co., Ltd</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>+86 (0) 571 85 58 67 18</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>http://www.capotchem.com/en/7968.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Adamas Reagent, Ltd.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>400-6009262 16621234537</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>http://www.tansoole.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Shanghai Longsheng chemical Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>021-58099652-8005 13585536065</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>http://www.shlschem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Shanghai Hanhong Scientific Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>021-54306202 13764082696</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>http://www.hanhonggroup.com/data/products_zh-cn/6058.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Chemsky（shanghai）International Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>021-50135380</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>http://www.shchemsky.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Shandong Xiya Chemical Co., Ltd</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4009903999 13355009207</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>http://www.xiyashiji.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Syntechem Co.,Ltd</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>http://www.syntechem.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sichuan Kulinan Technology Co., Ltd</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>400-1166-196 18981987031</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>http://www.hx-r.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Tianjin heowns Biochemical Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>400 638 7771</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>http://www.heowns.com/pro.aspx?keyno=15356-60-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Maya High Purity Chemicals</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>+86 (573) 82222445  (0)18006601000 452520369</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>http://www.maya-r.com/goods-16905.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Chengdu Ai Keda Chemical Technology Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4008-755-333 18080918076</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>http://www.aikeshiji.com/goods-487.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Shanghai civi chemical technology co.,Ltd</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>86-21-34053660</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>http://www.labgogo.com/product/productnew_58758.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Beijing HuaMeiHuLiBiological Chemical</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>010-56205725</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>http://www.huabeibiochem.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>9ding chemical ( Shanghai) Limited</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4009209199</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>http://www.9dingchem.com/15356-60-2.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Shanghai Aladdin Bio-Chem Technology Co.,LTD</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>400-6206333 18021050169</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>http://www.aladdin-e.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>The future of Shanghai Industrial Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>021-61552785</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>http://www.jonln.com/product/33315.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TargetMol Chemicals Inc.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>021-021-33632979 15002134094</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.targetmol.cn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Shanghai JONLN Reagent Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>400-0066400 13621662912</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>http://www.jonln.com/product/33315.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Alchimica s.r.o</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList435612/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Alchimica s.r.o</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList435612/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Portail Substances Chimiques</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>http://www.substances.ineris.fr</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ABCR GmbH &amp; CO. KG</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>http://www.abcr.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CHEMOS GmbH &amp; Co. KG</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList115900/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>HPC Standards GmbH</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList1956388/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Alfa Aesar, Thermo Fisher Scientific</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList1822070/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Service Chemical Inc.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>http://www.chemos-group.com/details.asp?id=190588</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ambe Phytoextracts Private Limited</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>http://www.ambe-group.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TCI Chemicals (India) Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.tcichemicals.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CHEMSWORTH</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>http://www.chemsworth.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ambe Phytoextracts Private Limited</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList261844/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Clearsynth Labs</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList803199/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CLEARSYNTH LABS LTD.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>http://www.clearsynth.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A.J Chemicals</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>http://www.ajchemicals.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Deimos S.r.l.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList740000/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TOKYO CHEMICAL INDUSTRY CO., LTD.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>03-36680489</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.tcichemicals.com/eshop/ja/jp/commodity/M0826/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TCI Japan</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList699072/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CHEMICAL LAND21</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>http://www.chemicalland21.com/AROKORHI/lifescience/foco/dl-MENTHOL.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SIGMA-RBI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>http://www.sigmaaldrich.com/catalog/ProductDetail.do?N4=63658|FLUKA&amp;N5=Product%20No.|BRAND_KEY&amp;F=SPEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>P&amp;S Chemicals</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList742832/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Leancare Ltd.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>http://www.leancare.co.uk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Melrob Ltd (part of Nordmann)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList1257937/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Biosynth Carbosynth</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList40448/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CARBONE SCIENTIFIC CO.,LTD</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>http://www.carbonesci.com/proinfor.asp?proid=47123</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Eurolabs Limited</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>http://www.eurolabs.co.uk/control.php?_path=720/722/723&amp;_command=/LAYOUT/616/cas%20like%20</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VWR International</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>http://www.vwr.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TargetMol Chemicals Inc.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>+1-781-999-5354 +1-00000000000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.targetmol.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TargetMol Chemicals Inc.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.targetmol.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Aceschem Inc.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>+1-817863-6948 +1-（817）863-6948</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.aceschem.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Aladdin Scientific</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>+1-+1(833)-552-7181</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.aladdinsci.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>EMMX Biotechnology LLC</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>888-539-0666</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>http://www.emmx.com/d-menthol.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Cayman Chemical Company</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>http://www.caymanchem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MilliporeSigma (Sigma-Aldrich Corp.)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList1255904/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Penta Manufacturing Company (a division of Penta International Corporation)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList1053083/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Parchem Fine &amp; Specialty Chemicals</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList461890/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Alichem Inc.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>http://www.alichem.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TCI America, Inc. (part of Tokyo Chemical Industry)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList78088/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>VWR International, LLC.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList78222/0.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Oakwood Products, Inc.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>http://www.oakwoodchemical.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Advance Scientific &amp; Chemical</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>http://www.advance-scientific.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Spectrum Chemicals &amp; Laboratory Products</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>http://www.spectrumchemical.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Glentham Life Sciences Ltd</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>http://www.glentham.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Penta International Corporation</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>http://www.pentamfg.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TCI America</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.tcichemicals.com/en/us/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SynQuest Laboratories, Inc.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>http://www.synquestlabs.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Riedel-de Haen AG</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>http://www.sigmaaldrich.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Frontier Scientific, Inc.</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>http://www.frontiersci.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Matrix Scientific</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>http://www.matrixscientific.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Labseeker Inc</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>http://www.labseeker.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>INDOFINE Chemical Company, Inc.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>http://www.indofinechemical.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Penta Manufacturing Company</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>http://www.pentamfg.com/query.asp?page=145</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Alfa Aesar</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>http://www.alfa.com/webapps/EC165W.pgm?TASK=disp&amp;rnd=94756&amp;filterF=DSSTK&amp;filterV=L06102</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3B Scientific Corporation</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>http://www.3bsc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>United States Biological</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>http://www.usbio.net/Category.aspx?catName=Biochem-Isotope+Labeled</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ChromaDex</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>http://www.chromadex.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Waterstone Technology, LLC</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>http://www.waterstonetech.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MP Biomedicals, Inc.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>http://www.mpbio.com/product_info.php?products_id=151598</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>BOC Sciences</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.bocsci.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Hebei Mujin Biotechnology Co.,Ltd</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>+86 13288715578 +8613288715578</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList456435/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Apeloa production Co.,Limited</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>+8619933239880</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList1984123/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Capot Chemical Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>+86-（0）57185586718 +86-13336195806</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList30405/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Henan Tianfu Chemical Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>+86-0371-55170693 +86-19937530512</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList30500/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>career henan chemical co</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>+86-0371-86658258 +8613203830695</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList30862/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Hubei Jusheng Technology Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>18871490254</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList31316/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Hebei Weibang Biotechnology Co., Ltd</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>+8615531157085</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList31448/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Hubei xin bonus chemical co. LTD</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>86-13657291602</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList1549548/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Chongqing Chemdad Co., Ltd</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>+86-023-6139-8061 +86-86-13650506873</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList366174/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CONIER  CHEM AND PHARMA LIMITED</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>+8618523575427</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.chemicalbook.com/ShowSupplierProductsList617604/0_EN.htm</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
